--- a/Simulation and Modeling/brownian motion.xlsx
+++ b/Simulation and Modeling/brownian motion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Simulate the Brownian Motion Using Excel</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Simulate the Brownian Motion of a particle Using Excel</t>
   </si>
 </sst>
 </file>
@@ -90,10 +93,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,304 +227,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.61509044963152837</c:v>
+                  <c:v>0.72581624387258015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27077301441381496</c:v>
+                  <c:v>0.83511410660083651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.24946756539251336</c:v>
+                  <c:v>1.7233810928282489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.22268822851084935</c:v>
+                  <c:v>2.633006091851005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45199572703543311</c:v>
+                  <c:v>2.9703375651630606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3038140893075927</c:v>
+                  <c:v>3.7172966205807656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36337907713842177</c:v>
+                  <c:v>3.7486058633299058</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.2733108667044466</c:v>
+                  <c:v>3.2028515944177007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.20412362153059282</c:v>
+                  <c:v>2.7354704431228614</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.20547127129540588</c:v>
+                  <c:v>2.7443190639154649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.20374560921128815</c:v>
+                  <c:v>2.204143053352893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26917967984488178</c:v>
+                  <c:v>1.7801823199902982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.24655739098039287</c:v>
+                  <c:v>1.7659466473685079</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.36991070235627643</c:v>
+                  <c:v>1.6383697822944918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.042053087200091</c:v>
+                  <c:v>2.616338275645183</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.8014454063596204</c:v>
+                  <c:v>2.8557248289869976</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.5321179289731828</c:v>
+                  <c:v>3.3451955006169172</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.4607519655970447</c:v>
+                  <c:v>2.981554413043801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.0816670518566438</c:v>
+                  <c:v>3.1931695260522739</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.1699598299417133</c:v>
+                  <c:v>4.1243732098712025</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.36555012248064078</c:v>
+                  <c:v>4.9998508372114978</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27686620517993021</c:v>
+                  <c:v>5.3971145735915078</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.25354964530534518</c:v>
+                  <c:v>5.4239472510895865</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.0995644623357803</c:v>
+                  <c:v>5.6445918274029641</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.721756362772179</c:v>
+                  <c:v>6.1740598255377677</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.83972156160782641</c:v>
+                  <c:v>6.7002398528356739</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.3635529832367028</c:v>
+                  <c:v>7.2182053980384433</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.65370250395385487</c:v>
+                  <c:v>7.7145476096341419</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.4201994613765727E-2</c:v>
+                  <c:v>7.1208170906675265</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.0076968260903734</c:v>
+                  <c:v>8.0331502742503513</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.8987004044643343</c:v>
+                  <c:v>8.0789201470921199</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.5931100070746615</c:v>
+                  <c:v>7.5383287035901336</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.271275440932234</c:v>
+                  <c:v>7.8054572938657216</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.7974167038096951</c:v>
+                  <c:v>8.646574532344502</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.5644818152501627</c:v>
+                  <c:v>7.9543614495037058</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.683576939513781</c:v>
+                  <c:v>8.7055996283669046</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.9258409480347494</c:v>
+                  <c:v>8.6750543457467906</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.8633967973338588</c:v>
+                  <c:v>9.465916516762972</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.1843654659503917</c:v>
+                  <c:v>10.323676038960702</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.3502686757159648</c:v>
+                  <c:v>11.005871072199733</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.6581411023025623</c:v>
+                  <c:v>11.585245907119148</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.90276670391729263</c:v>
+                  <c:v>11.360299666022462</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.7464545780327714</c:v>
+                  <c:v>11.851277376382448</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.598312495532225</c:v>
+                  <c:v>12.581495161845442</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.6999567077375</c:v>
+                  <c:v>11.792233500118979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.1324333766919932</c:v>
+                  <c:v>12.559954611586701</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.4008244408982724</c:v>
+                  <c:v>12.29003878276216</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.40230477281822496</c:v>
+                  <c:v>12.409015857134383</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.2522493064935474</c:v>
+                  <c:v>11.852900685402883</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.0425752781368285</c:v>
+                  <c:v>11.445694153300026</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.2695473456040669</c:v>
+                  <c:v>11.923500252674939</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.0595543316261189</c:v>
+                  <c:v>12.633651746965329</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.0206761745115651</c:v>
+                  <c:v>12.829443049675541</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.7091516074179507</c:v>
+                  <c:v>12.575569688219648</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-2.3418017549143588</c:v>
+                  <c:v>12.642227835089866</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-2.5548876804273384</c:v>
+                  <c:v>11.670812763911695</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-2.5429921517703908</c:v>
+                  <c:v>11.381548311343158</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-2.2265935634607388</c:v>
+                  <c:v>10.868136370887191</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.5157310457841604</c:v>
+                  <c:v>10.425531295732384</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.5665028681367428</c:v>
+                  <c:v>9.4823402353342843</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.0409288500031288</c:v>
+                  <c:v>9.8490577099741277</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.3082510763505359</c:v>
+                  <c:v>10.343466067408343</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.56353184252526178</c:v>
+                  <c:v>9.6591703101587534</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.96220295023859626</c:v>
+                  <c:v>9.0345793515203763</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.97029950979557156</c:v>
+                  <c:v>8.7331258333263868</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.78391530868947035</c:v>
+                  <c:v>8.6710437373786071</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-9.03720529250025E-2</c:v>
+                  <c:v>9.5886025131342123</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.80912073979067034</c:v>
+                  <c:v>9.2193207286696257</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.795968341293658</c:v>
+                  <c:v>9.8195491183787258</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8818058194810277</c:v>
+                  <c:v>9.5592388172163432</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.1406743400452632</c:v>
+                  <c:v>9.5179357527919208</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.4762661616653638</c:v>
+                  <c:v>8.933082244487542</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.5369766248821075</c:v>
+                  <c:v>8.0761864826681258</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.6524654204637494</c:v>
+                  <c:v>7.8486825337111927</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.1832958339571404</c:v>
+                  <c:v>8.5388982215957832</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.2935838825891293</c:v>
+                  <c:v>9.035149349518182</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.8860823162559068</c:v>
+                  <c:v>8.0399395439069412</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1419326700631869</c:v>
+                  <c:v>8.1976853264851766</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1611297067180049</c:v>
+                  <c:v>8.8542704785219559</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0608031900014612</c:v>
+                  <c:v>9.7661188192908437</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.546017011993432</c:v>
+                  <c:v>9.828762508851538</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.1861310103044789</c:v>
+                  <c:v>10.218087286109803</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8069446038403427</c:v>
+                  <c:v>10.505719073577874</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.1634742329112457</c:v>
+                  <c:v>11.060951300763293</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.6791706472140511</c:v>
+                  <c:v>10.847983123915343</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.9756606621545116</c:v>
+                  <c:v>11.442235129181419</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.3524505123259654</c:v>
+                  <c:v>11.321767710310692</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.4022762939336957</c:v>
+                  <c:v>11.727483493863486</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.4009878745490343</c:v>
+                  <c:v>12.501295543784074</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.8329808658846689</c:v>
+                  <c:v>12.667368869270682</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.6130433479377402</c:v>
+                  <c:v>12.083912493482336</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.222767158927839</c:v>
+                  <c:v>11.555027633084652</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.4515613015197415</c:v>
+                  <c:v>12.319507348027539</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.9611659057878343</c:v>
+                  <c:v>13.137649202925996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.445722328993174</c:v>
+                  <c:v>13.447752170895889</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.4406050420499881</c:v>
+                  <c:v>12.93440308534325</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.8669043626372837</c:v>
+                  <c:v>12.217469300518687</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.2460797844624896</c:v>
+                  <c:v>13.181714000764254</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.640893444115394</c:v>
+                  <c:v>13.361711146419983</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.7539052562943853</c:v>
+                  <c:v>12.970527100891855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,304 +539,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.23020237950945099</c:v>
+                  <c:v>0.21737565326955632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0439605243765007</c:v>
+                  <c:v>0.54868256832348106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.9682179929365102</c:v>
+                  <c:v>1.1631407240738703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.7092459362268517</c:v>
+                  <c:v>1.3165548411172192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.1651308128954252</c:v>
+                  <c:v>1.4693392896713466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.3183434165852699</c:v>
+                  <c:v>0.91020479044104508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.9897944520073967</c:v>
+                  <c:v>1.582300991236596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.3249837125613873</c:v>
+                  <c:v>1.774641326566472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.4557734026682181</c:v>
+                  <c:v>2.6617586136404672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.0250795253584606</c:v>
+                  <c:v>2.4514278011604058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.4719280475519367</c:v>
+                  <c:v>2.7834614006376115</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.3288197578663028</c:v>
+                  <c:v>2.8766718546001799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.2484338057002962</c:v>
+                  <c:v>2.751879211590321</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.7648276300502777</c:v>
+                  <c:v>2.3619548774046191</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.0477267145689053</c:v>
+                  <c:v>2.180142926998589</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.7310379702064838</c:v>
+                  <c:v>2.4932763098688584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.9170745905145266</c:v>
+                  <c:v>3.0108019319705175</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.1765570384765343</c:v>
+                  <c:v>2.3723399222204389</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.2780678152730003</c:v>
+                  <c:v>2.5697617002639008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.4273844258509172</c:v>
+                  <c:v>1.5890551943514257</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.3414118537086823</c:v>
+                  <c:v>1.18574590451006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.9884607789618911</c:v>
+                  <c:v>0.28402909851041058</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.3535445301165758</c:v>
+                  <c:v>-0.6547240194709103</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.92014959447771916</c:v>
+                  <c:v>-0.58131032261327054</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.5852726825721739</c:v>
+                  <c:v>0.21532390994187245</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.5035763888629941</c:v>
+                  <c:v>1.0506051502549283</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.6784230864139009</c:v>
+                  <c:v>2.0485090480381709</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.3262181653342235</c:v>
+                  <c:v>1.80845368493548</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.6206836615473073</c:v>
+                  <c:v>2.6041708254221447</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3.1591115468540902</c:v>
+                  <c:v>3.0853474798149954</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.4174622017275542</c:v>
+                  <c:v>3.2350013423503468</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.2239038359331733</c:v>
+                  <c:v>3.2733001580701764</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.3117232802361425</c:v>
+                  <c:v>3.8388136685230263</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3.1584033803040112</c:v>
+                  <c:v>4.6507806337560282</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.3042882977278181</c:v>
+                  <c:v>5.0377535353945468</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.4228597863319705</c:v>
+                  <c:v>5.3790698036519915</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.42633975476603769</c:v>
+                  <c:v>4.7230686508068462</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.72312124211336082</c:v>
+                  <c:v>4.3090032025573093</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.30751910438598E-2</c:v>
+                  <c:v>4.4442927894949031</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.38532590898348085</c:v>
+                  <c:v>4.237028840488982</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.52793194981896541</c:v>
+                  <c:v>4.9489403585832719</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.28963166054324652</c:v>
+                  <c:v>4.234236668825325</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.42072637252131906</c:v>
+                  <c:v>4.7532346520898061</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.74790939278899882</c:v>
+                  <c:v>5.0241840804986388</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.55577839882136759</c:v>
+                  <c:v>5.3650353228151548</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.33976147663703582</c:v>
+                  <c:v>4.9705746731645677</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.40263877340288112</c:v>
+                  <c:v>5.8528586174583852</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0979357650573687</c:v>
+                  <c:v>6.7581955077950839</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.9091270874276036</c:v>
+                  <c:v>6.9572426408220842</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.2679753189445284</c:v>
+                  <c:v>7.8112887523539687</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.2819814569094392</c:v>
+                  <c:v>8.6658047589241836</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.6075662882405848</c:v>
+                  <c:v>9.0331379424673219</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0927590324177257</c:v>
+                  <c:v>9.7803267304889907</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.9899634639544095</c:v>
+                  <c:v>8.8334494618835873</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.9406033984107081</c:v>
+                  <c:v>9.8249451590658321</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0280719513384833</c:v>
+                  <c:v>9.4198379453477337</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3883349170770163</c:v>
+                  <c:v>9.5094866464364731</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.9474523580346497</c:v>
+                  <c:v>9.7898598494258042</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99086314145495735</c:v>
+                  <c:v>10.401487282582565</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.3615576190009451E-2</c:v>
+                  <c:v>9.5277445415182811</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.65383888756569042</c:v>
+                  <c:v>9.8239332412133145</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2641241570750845</c:v>
+                  <c:v>9.9878467204904844</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.759007572700662</c:v>
+                  <c:v>10.817851830154186</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.4310869692290336</c:v>
+                  <c:v>10.498444532417469</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4489066438700857</c:v>
+                  <c:v>10.952547057440183</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99549784663982077</c:v>
+                  <c:v>11.216041791405118</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.25614307478549736</c:v>
+                  <c:v>12.110626834982032</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.36556311789257223</c:v>
+                  <c:v>11.485454424660965</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.50375992810028003</c:v>
+                  <c:v>11.704997091537484</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.97947811678620389</c:v>
+                  <c:v>11.41479363125662</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.49607834297450082</c:v>
+                  <c:v>11.491556246047226</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.562544873236889E-2</c:v>
+                  <c:v>11.524088966824918</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-9.6560002982061244E-2</c:v>
+                  <c:v>11.17133527000839</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.33089107115629002</c:v>
+                  <c:v>10.289610153180055</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.1658296253477234</c:v>
+                  <c:v>11.19008961850051</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.1670911670325177</c:v>
+                  <c:v>11.183159029417473</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.5000373974101846E-2</c:v>
+                  <c:v>11.712213496352394</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.78153146415048447</c:v>
+                  <c:v>11.654394295061325</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1708703923275774</c:v>
+                  <c:v>11.854438177632963</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.90617927429789979</c:v>
+                  <c:v>11.126178770564156</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0063740827278567E-2</c:v>
+                  <c:v>10.569966150388023</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.63225667071148384</c:v>
+                  <c:v>9.7554975878926307</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.4418396293116957</c:v>
+                  <c:v>9.6416278650578224</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.81882647180407031</c:v>
+                  <c:v>9.3262230441573912</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.14621432376788013</c:v>
+                  <c:v>8.3989882316035924</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.5558259678113644</c:v>
+                  <c:v>9.0586582644581384</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-4.1651574350085596E-2</c:v>
+                  <c:v>9.2312946842288675</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-7.289638985606528E-2</c:v>
+                  <c:v>9.0722764184978679</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.64260056060502468</c:v>
+                  <c:v>9.6779369474046764</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.2214981141576944</c:v>
+                  <c:v>9.1559769153267645</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-1.0199936041569184</c:v>
+                  <c:v>9.8362529362751534</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.5877628461120521</c:v>
+                  <c:v>10.718903683888694</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.8526623995706186</c:v>
+                  <c:v>11.205668452594248</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-2.3712508803810133</c:v>
+                  <c:v>11.096010829711812</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.4878916343099551</c:v>
+                  <c:v>10.591976520806089</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-2.2333385975157918</c:v>
+                  <c:v>11.39926621981528</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-3.0126016621339518</c:v>
+                  <c:v>12.074253989684072</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.6184971978106715</c:v>
+                  <c:v>12.903104011410614</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-3.5355257647724612</c:v>
+                  <c:v>12.635633009933301</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-3.7713613341508596</c:v>
+                  <c:v>12.79700839926099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,62 +1884,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView tabSelected="1" topLeftCell="F98" workbookViewId="0">
+      <selection activeCell="S100" sqref="S100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.61509044963152837</v>
+        <f t="shared" ref="A6:B25" ca="1" si="0">1-RAND()*2</f>
+        <v>0.72581624387258015</v>
       </c>
       <c r="B6">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.23020237950945099</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21737565326955632</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1947,1802 +1955,1802 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.88586346404534333</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10929786272825637</v>
       </c>
       <c r="B7">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.81375814486704967</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33130691505392473</v>
       </c>
       <c r="G7">
-        <f ca="1">G6+A6</f>
-        <v>-0.61509044963152837</v>
+        <f t="shared" ref="G7:G38" ca="1" si="1">G6+A6</f>
+        <v>0.72581624387258015</v>
       </c>
       <c r="H7">
-        <f ca="1">H6+B6</f>
-        <v>-0.23020237950945099</v>
+        <f t="shared" ref="H7:H38" ca="1" si="2">H6+B6</f>
+        <v>0.21737565326955632</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.52024057980632832</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8882669862274124</v>
       </c>
       <c r="B8">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.92425746856000957</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6144581557503892</v>
       </c>
       <c r="G8">
-        <f ca="1">G7+A7</f>
-        <v>0.27077301441381496</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83511410660083651</v>
       </c>
       <c r="H8">
-        <f ca="1">H7+B7</f>
-        <v>-1.0439605243765007</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54868256832348106</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f ca="1">1-RAND()*2</f>
-        <v>2.6779336881664006E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90962499902275606</v>
       </c>
       <c r="B9">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.74102794329034172</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15341411704334895</v>
       </c>
       <c r="G9">
-        <f ca="1">G8+A8</f>
-        <v>-0.24946756539251336</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7233810928282489</v>
       </c>
       <c r="H9">
-        <f ca="1">H8+B8</f>
-        <v>-1.9682179929365102</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1631407240738703</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.67468395554628247</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3373314733120556</v>
       </c>
       <c r="B10">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.45588487666857347</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15278444855412743</v>
       </c>
       <c r="G10">
-        <f ca="1">G9+A9</f>
-        <v>-0.22268822851084935</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.633006091851005</v>
       </c>
       <c r="H10">
-        <f ca="1">H9+B9</f>
-        <v>-2.7092459362268517</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3165548411172192</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.85181836227215957</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7469590554177048</v>
       </c>
       <c r="B11">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.15321260368984446</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.55913449923030156</v>
       </c>
       <c r="G11">
-        <f ca="1">G10+A10</f>
-        <v>0.45199572703543311</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9703375651630606</v>
       </c>
       <c r="H11">
-        <f ca="1">H10+B10</f>
-        <v>-3.1651308128954252</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4693392896713466</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.94043501216917091</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1309242749139932E-2</v>
       </c>
       <c r="B12">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.67145103542212659</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67209620079555088</v>
       </c>
       <c r="G12">
-        <f ca="1">G11+A11</f>
-        <v>1.3038140893075927</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7172966205807656</v>
       </c>
       <c r="H12">
-        <f ca="1">H11+B11</f>
-        <v>-3.3183434165852699</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.91020479044104508</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.63668994384286837</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.54575426891220524</v>
       </c>
       <c r="B13">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.33518926055399079</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19234033532987604</v>
       </c>
       <c r="G13">
-        <f ca="1">G12+A12</f>
-        <v>0.36337907713842177</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7486058633299058</v>
       </c>
       <c r="H13">
-        <f ca="1">H12+B12</f>
-        <v>-3.9897944520073967</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.582300991236596</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f ca="1">1-RAND()*2</f>
-        <v>6.9187245173853773E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.46738115129483937</v>
       </c>
       <c r="B14">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.86921030989316916</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88711728707399495</v>
       </c>
       <c r="G14">
-        <f ca="1">G13+A13</f>
-        <v>-0.2733108667044466</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2028515944177007</v>
       </c>
       <c r="H14">
-        <f ca="1">H13+B13</f>
-        <v>-4.3249837125613873</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.774641326566472</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f ca="1">1-RAND()*2</f>
-        <v>-1.3476497648130525E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.84862079260329E-3</v>
       </c>
       <c r="B15">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.56930612269024228</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.21033081248006136</v>
       </c>
       <c r="G15">
-        <f ca="1">G14+A14</f>
-        <v>-0.20412362153059282</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7354704431228614</v>
       </c>
       <c r="H15">
-        <f ca="1">H14+B14</f>
-        <v>-3.4557734026682181</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6617586136404672</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f ca="1">1-RAND()*2</f>
-        <v>1.7256620841177295E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.54017601056257214</v>
       </c>
       <c r="B16">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.55315147780652363</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33203359947720568</v>
       </c>
       <c r="G16">
-        <f ca="1">G15+A15</f>
-        <v>-0.20547127129540588</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7443190639154649</v>
       </c>
       <c r="H16">
-        <f ca="1">H15+B15</f>
-        <v>-4.0250795253584606</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4514278011604058</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.47292528905616993</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.42396073336259477</v>
       </c>
       <c r="B17">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.14310828968563394</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.321045396256844E-2</v>
       </c>
       <c r="G17">
-        <f ca="1">G16+A16</f>
-        <v>-0.20374560921128815</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.204143053352893</v>
       </c>
       <c r="H17">
-        <f ca="1">H16+B16</f>
-        <v>-3.4719280475519367</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7834614006376115</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f ca="1">1-RAND()*2</f>
-        <v>-2.2622288864488915E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.4235672621790263E-2</v>
       </c>
       <c r="B18">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.91961404783399336</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.12479264300985915</v>
       </c>
       <c r="G18">
-        <f ca="1">G17+A17</f>
-        <v>0.26917967984488178</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7801823199902982</v>
       </c>
       <c r="H18">
-        <f ca="1">H17+B17</f>
-        <v>-3.3288197578663028</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8766718546001799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.6164680933366693</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.12757686507401611</v>
       </c>
       <c r="B19">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.48360617565001851</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.38992433418570172</v>
       </c>
       <c r="G19">
-        <f ca="1">G18+A18</f>
-        <v>0.24655739098039287</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7659466473685079</v>
       </c>
       <c r="H19">
-        <f ca="1">H18+B18</f>
-        <v>-4.2484338057002962</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.751879211590321</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.67214238484381461</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97796849335069136</v>
       </c>
       <c r="B20">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.28289908451862789</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.18181195040603004</v>
       </c>
       <c r="G20">
-        <f ca="1">G19+A19</f>
-        <v>-0.36991070235627643</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6383697822944918</v>
       </c>
       <c r="H20">
-        <f ca="1">H19+B19</f>
-        <v>-3.7648276300502777</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3619548774046191</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.75939231915952932</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23938655334181469</v>
       </c>
       <c r="B21">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.31668874436242178</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31313338287026937</v>
       </c>
       <c r="G21">
-        <f ca="1">G20+A20</f>
-        <v>-1.042053087200091</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.616338275645183</v>
       </c>
       <c r="H21">
-        <f ca="1">H20+B20</f>
-        <v>-4.0477267145689053</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.180142926998589</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.73067252261356241</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48947067162991931</v>
       </c>
       <c r="B22">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.81396337969195698</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51752562210165931</v>
       </c>
       <c r="G22">
-        <f ca="1">G21+A21</f>
-        <v>-1.8014454063596204</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8557248289869976</v>
       </c>
       <c r="H22">
-        <f ca="1">H21+B21</f>
-        <v>-3.7310379702064838</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4932763098688584</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f ca="1">1-RAND()*2</f>
-        <v>7.1365963376138097E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.36364108757311642</v>
       </c>
       <c r="B23">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.7405175520379923</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.63846200975007839</v>
       </c>
       <c r="G23">
-        <f ca="1">G22+A22</f>
-        <v>-2.5321179289731828</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3451955006169172</v>
       </c>
       <c r="H23">
-        <f ca="1">H22+B22</f>
-        <v>-2.9170745905145266</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0108019319705175</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.37908491374040065</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21161511300847269</v>
       </c>
       <c r="B24">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.10151077679646581</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19742177804346217</v>
       </c>
       <c r="G24">
-        <f ca="1">G23+A23</f>
-        <v>-2.4607519655970447</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.981554413043801</v>
       </c>
       <c r="H24">
-        <f ca="1">H23+B23</f>
-        <v>-2.1765570384765343</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3723399222204389</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.91170722191493048</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93120368381892882</v>
       </c>
       <c r="B25">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.14931661057791668</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.9807065059124751</v>
       </c>
       <c r="G25">
-        <f ca="1">G24+A24</f>
-        <v>-2.0816670518566438</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1931695260522739</v>
       </c>
       <c r="H25">
-        <f ca="1">H24+B24</f>
-        <v>-2.2780678152730003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5697617002639008</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.80440970746107254</v>
+        <f t="shared" ref="A26:B45" ca="1" si="3">1-RAND()*2</f>
+        <v>0.87547762734029511</v>
       </c>
       <c r="B26">
-        <f ca="1">1-RAND()*2</f>
-        <v>8.597257214223486E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.40330928984136571</v>
       </c>
       <c r="G26">
-        <f ca="1">G25+A25</f>
-        <v>-1.1699598299417133</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1243732098712025</v>
       </c>
       <c r="H26">
-        <f ca="1">H25+B25</f>
-        <v>-2.4273844258509172</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5890551943514257</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.642416327660571</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39726373638000978</v>
       </c>
       <c r="B27">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.35295107474679122</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.90171680599964943</v>
       </c>
       <c r="G27">
-        <f ca="1">G26+A26</f>
-        <v>-0.36555012248064078</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9998508372114978</v>
       </c>
       <c r="H27">
-        <f ca="1">H26+B26</f>
-        <v>-2.3414118537086823</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.18574590451006</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.5304158504852754</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.683267749807916E-2</v>
       </c>
       <c r="B28">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.63491624884531528</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.93875311798132088</v>
       </c>
       <c r="G28">
-        <f ca="1">G27+A27</f>
-        <v>0.27686620517993021</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3971145735915078</v>
       </c>
       <c r="H28">
-        <f ca="1">H27+B27</f>
-        <v>-1.9884607789618911</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28402909851041058</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.84601481703043513</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22064457631337731</v>
       </c>
       <c r="B29">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.43339493563885667</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7.3413696857639765E-2</v>
       </c>
       <c r="G29">
-        <f ca="1">G28+A28</f>
-        <v>-0.25354964530534518</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.4239472510895865</v>
       </c>
       <c r="H29">
-        <f ca="1">H28+B28</f>
-        <v>-1.3535445301165758</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.6547240194709103</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.62219190043639871</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.52946799813480361</v>
       </c>
       <c r="B30">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.66512308809445475</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79663423255514298</v>
       </c>
       <c r="G30">
-        <f ca="1">G29+A29</f>
-        <v>-1.0995644623357803</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6445918274029641</v>
       </c>
       <c r="H30">
-        <f ca="1">H29+B29</f>
-        <v>-0.92014959447771916</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.58131032261327054</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.88203480116435262</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.52618002729790603</v>
       </c>
       <c r="B31">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.91830370629082014</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.83528124031305584</v>
       </c>
       <c r="G31">
-        <f ca="1">G30+A30</f>
-        <v>-1.721756362772179</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.1740598255377677</v>
       </c>
       <c r="H31">
-        <f ca="1">H30+B30</f>
-        <v>-1.5852726825721739</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21532390994187245</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.52383142162887641</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.51796554520276916</v>
       </c>
       <c r="B32">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.82515330244909313</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99790389778324284</v>
       </c>
       <c r="G32">
-        <f ca="1">G31+A31</f>
-        <v>-0.83972156160782641</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.7002398528356739</v>
       </c>
       <c r="H32">
-        <f ca="1">H31+B31</f>
-        <v>-2.5035763888629941</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0506051502549283</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.70985047928284795</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4963422115956988</v>
       </c>
       <c r="B33">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.6477950789203224</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.24005536310269093</v>
       </c>
       <c r="G33">
-        <f ca="1">G32+A32</f>
-        <v>-1.3635529832367028</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.2182053980384433</v>
       </c>
       <c r="H33">
-        <f ca="1">H32+B32</f>
-        <v>-1.6784230864139009</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0485090480381709</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.60950050934008915</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.59373051896661555</v>
       </c>
       <c r="B34">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.29446549621308349</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79571714048666475</v>
       </c>
       <c r="G34">
-        <f ca="1">G33+A33</f>
-        <v>-0.65370250395385487</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.7145476096341419</v>
       </c>
       <c r="H34">
-        <f ca="1">H33+B33</f>
-        <v>-2.3262181653342235</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.80845368493548</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.96349483147660764</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.91233318358282456</v>
       </c>
       <c r="B35">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.53842788530678298</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.48117665439285062</v>
       </c>
       <c r="G35">
-        <f ca="1">G34+A34</f>
-        <v>-4.4201994613765727E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.1208170906675265</v>
       </c>
       <c r="H35">
-        <f ca="1">H34+B34</f>
-        <v>-2.6206836615473073</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6041708254221447</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.10899642162603906</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5769872841769033E-2</v>
       </c>
       <c r="B36">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.7416493451265358</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14965386253535118</v>
       </c>
       <c r="G36">
-        <f ca="1">G35+A35</f>
-        <v>-1.0076968260903734</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.0331502742503513</v>
       </c>
       <c r="H36">
-        <f ca="1">H35+B35</f>
-        <v>-3.1591115468540902</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0853474798149954</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.69440960261032725</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.54059144350198673</v>
       </c>
       <c r="B37">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.80644163420561932</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.8298815719829848E-2</v>
       </c>
       <c r="G37">
-        <f ca="1">G36+A36</f>
-        <v>-0.8987004044643343</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.0789201470921199</v>
       </c>
       <c r="H37">
-        <f ca="1">H36+B36</f>
-        <v>-2.4174622017275542</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2350013423503468</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.67816543385757222</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26712859027558777</v>
       </c>
       <c r="B38">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.9121805556970306</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.56551351045284992</v>
       </c>
       <c r="G38">
-        <f ca="1">G37+A37</f>
-        <v>-1.5931100070746615</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.5383287035901336</v>
       </c>
       <c r="H38">
-        <f ca="1">H37+B37</f>
-        <v>-3.2239038359331733</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2733001580701764</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.5261412628774611</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.84111723847878128</v>
       </c>
       <c r="B39">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.84668010006786876</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.81196696523300149</v>
       </c>
       <c r="G39">
-        <f ca="1">G38+A38</f>
-        <v>-2.271275440932234</v>
+        <f t="shared" ref="G39:G70" ca="1" si="4">G38+A38</f>
+        <v>7.8054572938657216</v>
       </c>
       <c r="H39">
-        <f ca="1">H38+B38</f>
-        <v>-2.3117232802361425</v>
+        <f t="shared" ref="H39:H70" ca="1" si="5">H38+B38</f>
+        <v>3.8388136685230263</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.23293488855953237</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.69221308284079575</v>
       </c>
       <c r="B40">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.85411508257619317</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.38697290163851861</v>
       </c>
       <c r="G40">
-        <f ca="1">G39+A39</f>
-        <v>-2.7974167038096951</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.646574532344502</v>
       </c>
       <c r="H40">
-        <f ca="1">H39+B39</f>
-        <v>-3.1584033803040112</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.6507806337560282</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.11909512426361846</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.75123817886319788</v>
       </c>
       <c r="B41">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.88142851139584755</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34131626825744443</v>
       </c>
       <c r="G41">
-        <f ca="1">G40+A40</f>
-        <v>-2.5644818152501627</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7.9543614495037058</v>
       </c>
       <c r="H41">
-        <f ca="1">H40+B40</f>
-        <v>-2.3042882977278181</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0377535353945468</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.24226400852096819</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.0545282620114023E-2</v>
       </c>
       <c r="B42">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.99652003156593283</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.65600115284514549</v>
       </c>
       <c r="G42">
-        <f ca="1">G41+A41</f>
-        <v>-2.683576939513781</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.7055996283669046</v>
       </c>
       <c r="H42">
-        <f ca="1">H41+B41</f>
-        <v>-1.4228597863319705</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3790698036519915</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f ca="1">1-RAND()*2</f>
-        <v>6.2444150700890599E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79086217101618161</v>
       </c>
       <c r="B43">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.29678148734732313</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.41406544824953673</v>
       </c>
       <c r="G43">
-        <f ca="1">G42+A42</f>
-        <v>-2.9258409480347494</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.6750543457467906</v>
       </c>
       <c r="H43">
-        <f ca="1">H42+B42</f>
-        <v>-0.42633975476603769</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.7230686508068462</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.67903133138346683</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.85775952219773011</v>
       </c>
       <c r="B44">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.74619643315722062</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13528958693759363</v>
       </c>
       <c r="G44">
-        <f ca="1">G43+A43</f>
-        <v>-2.8633967973338588</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.465916516762972</v>
       </c>
       <c r="H44">
-        <f ca="1">H43+B43</f>
-        <v>-0.72312124211336082</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.3090032025573093</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.16590320976557327</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.68219503323903119</v>
       </c>
       <c r="B45">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.40840110002734065</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.20726394900592116</v>
       </c>
       <c r="G45">
-        <f ca="1">G44+A44</f>
-        <v>-2.1843654659503917</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.323676038960702</v>
       </c>
       <c r="H45">
-        <f ca="1">H44+B44</f>
-        <v>2.30751910438598E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.4442927894949031</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.69212757341340247</v>
+        <f t="shared" ref="A46:B65" ca="1" si="6">1-RAND()*2</f>
+        <v>0.57937483491941411</v>
       </c>
       <c r="B46">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.14260604083548456</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.71191151809428987</v>
       </c>
       <c r="G46">
-        <f ca="1">G45+A45</f>
-        <v>-2.3502686757159648</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.005871072199733</v>
       </c>
       <c r="H46">
-        <f ca="1">H45+B45</f>
-        <v>-0.38532590898348085</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.237028840488982</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.75537439838526965</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.22494624109668604</v>
       </c>
       <c r="B47">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.81756361036221192</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.71470368975794663</v>
       </c>
       <c r="G47">
-        <f ca="1">G46+A46</f>
-        <v>-1.6581411023025623</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.585245907119148</v>
       </c>
       <c r="H47">
-        <f ca="1">H46+B46</f>
-        <v>-0.52793194981896541</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.9489403585832719</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.84368787411547874</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49097771035998616</v>
       </c>
       <c r="B48">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.13109471197807254</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.51899798326448132</v>
       </c>
       <c r="G48">
-        <f ca="1">G47+A47</f>
-        <v>-0.90276670391729263</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.360299666022462</v>
       </c>
       <c r="H48">
-        <f ca="1">H47+B47</f>
-        <v>0.28963166054324652</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.234236668825325</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.85185791749945383</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.73021778546299387</v>
       </c>
       <c r="B49">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.32718302026767976</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.27094942840883296</v>
       </c>
       <c r="G49">
-        <f ca="1">G48+A48</f>
-        <v>-1.7464545780327714</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.851277376382448</v>
       </c>
       <c r="H49">
-        <f ca="1">H48+B48</f>
-        <v>0.42072637252131906</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.7532346520898061</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.89835578779472502</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.78926166172646339</v>
       </c>
       <c r="B50">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.19213099396763123</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.34085124231651576</v>
       </c>
       <c r="G50">
-        <f ca="1">G49+A49</f>
-        <v>-2.598312495532225</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.581495161845442</v>
       </c>
       <c r="H50">
-        <f ca="1">H49+B49</f>
-        <v>0.74790939278899882</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0241840804986388</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.56752333104550678</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.76772111146772204</v>
       </c>
       <c r="B51">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.89553987545840341</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.39446064965058691</v>
       </c>
       <c r="G51">
-        <f ca="1">G50+A50</f>
-        <v>-1.6999567077375</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.792233500118979</v>
       </c>
       <c r="H51">
-        <f ca="1">H50+B50</f>
-        <v>0.55577839882136759</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3650353228151548</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.26839106420627923</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.26991582882453979</v>
       </c>
       <c r="B52">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.74240025003991694</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.88228394429381729</v>
       </c>
       <c r="G52">
-        <f ca="1">G51+A51</f>
-        <v>-1.1324333766919932</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.559954611586701</v>
       </c>
       <c r="H52">
-        <f ca="1">H51+B51</f>
-        <v>-0.33976147663703582</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.9705746731645677</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.99851966808004744</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.11897707437222382</v>
       </c>
       <c r="B53">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.69529699165448755</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.90533689033669851</v>
       </c>
       <c r="G53">
-        <f ca="1">G52+A52</f>
-        <v>-1.4008244408982724</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.29003878276216</v>
       </c>
       <c r="H53">
-        <f ca="1">H52+B52</f>
-        <v>0.40263877340288112</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.8528586174583852</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.84994453367532241</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.55611517173150049</v>
       </c>
       <c r="B54">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.81119132237023495</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.19904713302700028</v>
       </c>
       <c r="G54">
-        <f ca="1">G53+A53</f>
-        <v>-0.40230477281822496</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.409015857134383</v>
       </c>
       <c r="H54">
-        <f ca="1">H53+B53</f>
-        <v>1.0979357650573687</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.7581955077950839</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.20967402835671889</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.4072065321028564</v>
       </c>
       <c r="B55">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.35884823151692502</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.85404611153188448</v>
       </c>
       <c r="G55">
-        <f ca="1">G54+A54</f>
-        <v>-1.2522493064935474</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.852900685402883</v>
       </c>
       <c r="H55">
-        <f ca="1">H54+B54</f>
-        <v>1.9091270874276036</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.9572426408220842</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.77302793253276159</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.47780609937491225</v>
       </c>
       <c r="B56">
-        <f ca="1">1-RAND()*2</f>
-        <v>1.4006137964910792E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.85451600657021443</v>
       </c>
       <c r="G56">
-        <f ca="1">G55+A55</f>
-        <v>-1.0425752781368285</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.445694153300026</v>
       </c>
       <c r="H56">
-        <f ca="1">H55+B55</f>
-        <v>2.2679753189445284</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8112887523539687</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.79000698602205199</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.71015149429038971</v>
       </c>
       <c r="B57">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.67441516866885443</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.36733318354313793</v>
       </c>
       <c r="G57">
-        <f ca="1">G56+A56</f>
-        <v>-0.2695473456040669</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.923500252674939</v>
       </c>
       <c r="H57">
-        <f ca="1">H56+B56</f>
-        <v>2.2819814569094392</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.6658047589241836</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.96112184288544644</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.19579130271021294</v>
       </c>
       <c r="B58">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.51480725582285913</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.74718878802166944</v>
       </c>
       <c r="G58">
-        <f ca="1">G57+A57</f>
-        <v>-1.0595543316261189</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.633651746965329</v>
       </c>
       <c r="H58">
-        <f ca="1">H57+B57</f>
-        <v>1.6075662882405848</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.0331379424673219</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.31152456709361442</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.2538733614558939</v>
       </c>
       <c r="B59">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.89720443153668383</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.94687726860540411</v>
       </c>
       <c r="G59">
-        <f ca="1">G58+A58</f>
-        <v>-2.0206761745115651</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.829443049675541</v>
       </c>
       <c r="H59">
-        <f ca="1">H58+B58</f>
-        <v>1.0927590324177257</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.7803267304889907</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.63265014749640813</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.6658146870218093E-2</v>
       </c>
       <c r="B60">
-        <f ca="1">1-RAND()*2</f>
-        <v>-4.9360065543701426E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.9914956971822444</v>
       </c>
       <c r="G60">
-        <f ca="1">G59+A59</f>
-        <v>-1.7091516074179507</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.575569688219648</v>
       </c>
       <c r="H60">
-        <f ca="1">H59+B59</f>
-        <v>1.9899634639544095</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.8334494618835873</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.21308592551297956</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.97141507117817039</v>
       </c>
       <c r="B61">
-        <f ca="1">1-RAND()*2</f>
-        <v>8.7468552927775001E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.40510721371809755</v>
       </c>
       <c r="G61">
-        <f ca="1">G60+A60</f>
-        <v>-2.3418017549143588</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.642227835089866</v>
       </c>
       <c r="H61">
-        <f ca="1">H60+B60</f>
-        <v>1.9406033984107081</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8249451590658321</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f ca="1">1-RAND()*2</f>
-        <v>1.1895528656947318E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.28926445256853661</v>
       </c>
       <c r="B62">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.639737034261467</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.9648701088739458E-2</v>
       </c>
       <c r="G62">
-        <f ca="1">G61+A61</f>
-        <v>-2.5548876804273384</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.670812763911695</v>
       </c>
       <c r="H62">
-        <f ca="1">H61+B61</f>
-        <v>2.0280719513384833</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.4198379453477337</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.31639858830965206</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.5134119404559665</v>
       </c>
       <c r="B63">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.55911744095763338</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.28037320298933111</v>
       </c>
       <c r="G63">
-        <f ca="1">G62+A62</f>
-        <v>-2.5429921517703908</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.381548311343158</v>
       </c>
       <c r="H63">
-        <f ca="1">H62+B62</f>
-        <v>1.3883349170770163</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.5094866464364731</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.71086251767657838</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.44260507515480696</v>
       </c>
       <c r="B64">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.95658921657969231</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.6116274331567606</v>
       </c>
       <c r="G64">
-        <f ca="1">G63+A63</f>
-        <v>-2.2265935634607388</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.868136370887191</v>
       </c>
       <c r="H64">
-        <f ca="1">H63+B63</f>
-        <v>1.9474523580346497</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.7898598494258042</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f ca="1">1-RAND()*2</f>
-        <v>-5.0771822352582374E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.94319106039809975</v>
       </c>
       <c r="B65">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.9372475652649479</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.87374274106428396</v>
       </c>
       <c r="G65">
-        <f ca="1">G64+A64</f>
-        <v>-1.5157310457841604</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.425531295732384</v>
       </c>
       <c r="H65">
-        <f ca="1">H64+B64</f>
-        <v>0.99086314145495735</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10.401487282582565</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.52557401813361393</v>
+        <f t="shared" ref="A66:B85" ca="1" si="7">1-RAND()*2</f>
+        <v>0.36671747463984272</v>
       </c>
       <c r="B66">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.60022331137568097</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.29618869969503314</v>
       </c>
       <c r="G66">
-        <f ca="1">G65+A65</f>
-        <v>-1.5665028681367428</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.4823402353342843</v>
       </c>
       <c r="H66">
-        <f ca="1">H65+B65</f>
-        <v>5.3615576190009451E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.5277445415182811</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.2673222263474071</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.4944083574342153</v>
       </c>
       <c r="B67">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.6102852695093941</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.16391347927717081</v>
       </c>
       <c r="G67">
-        <f ca="1">G66+A66</f>
-        <v>-1.0409288500031288</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.8490577099741277</v>
       </c>
       <c r="H67">
-        <f ca="1">H66+B66</f>
-        <v>0.65383888756569042</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.8239332412133145</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.74471923382527416</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.68429575724959046</v>
       </c>
       <c r="B68">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.49488341562557747</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.830005109663702</v>
       </c>
       <c r="G68">
-        <f ca="1">G67+A67</f>
-        <v>-1.3082510763505359</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.343466067408343</v>
       </c>
       <c r="H68">
-        <f ca="1">H67+B67</f>
-        <v>1.2641241570750845</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.9878467204904844</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.39867110771333447</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.62459095863837688</v>
       </c>
       <c r="B69">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.67207939652837134</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.31940729773671683</v>
       </c>
       <c r="G69">
-        <f ca="1">G68+A68</f>
-        <v>-0.56353184252526178</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.6591703101587534</v>
       </c>
       <c r="H69">
-        <f ca="1">H68+B68</f>
-        <v>1.759007572700662</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10.817851830154186</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f ca="1">1-RAND()*2</f>
-        <v>-8.0965595569753024E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.30145351819399036</v>
       </c>
       <c r="B70">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.98218032535894784</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.45410252502271398</v>
       </c>
       <c r="G70">
-        <f ca="1">G69+A69</f>
-        <v>-0.96220295023859626</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.0345793515203763</v>
       </c>
       <c r="H70">
-        <f ca="1">H69+B69</f>
-        <v>2.4310869692290336</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10.498444532417469</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.18638420110610121</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-6.2082095947778804E-2</v>
       </c>
       <c r="B71">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.45340879723026495</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.26349473396493517</v>
       </c>
       <c r="G71">
-        <f ca="1">G70+A70</f>
-        <v>-0.97029950979557156</v>
+        <f t="shared" ref="G71:G106" ca="1" si="8">G70+A70</f>
+        <v>8.7331258333263868</v>
       </c>
       <c r="H71">
-        <f ca="1">H70+B70</f>
-        <v>1.4489066438700857</v>
+        <f t="shared" ref="H71:H106" ca="1" si="9">H70+B70</f>
+        <v>10.952547057440183</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.69354325576446785</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91755877575560474</v>
       </c>
       <c r="B72">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.73935477185432341</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.89458504357691404</v>
       </c>
       <c r="G72">
-        <f ca="1">G71+A71</f>
-        <v>-0.78391530868947035</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.6710437373786071</v>
       </c>
       <c r="H72">
-        <f ca="1">H71+B71</f>
-        <v>0.99549784663982077</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.216041791405118</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.89949279271567284</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.36928178446458571</v>
       </c>
       <c r="B73">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.62170619267806959</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.62517241032106652</v>
       </c>
       <c r="G73">
-        <f ca="1">G72+A72</f>
-        <v>-9.03720529250025E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9.5886025131342123</v>
       </c>
       <c r="H73">
-        <f ca="1">H72+B72</f>
-        <v>0.25614307478549736</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12.110626834982032</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.98684760150298767</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.60022838970909964</v>
       </c>
       <c r="B74">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.86932304599285226</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.21954266687651836</v>
       </c>
       <c r="G74">
-        <f ca="1">G73+A73</f>
-        <v>0.80912073979067034</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9.2193207286696257</v>
       </c>
       <c r="H74">
-        <f ca="1">H73+B73</f>
-        <v>-0.36556311789257223</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.485454424660965</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f ca="1">1-RAND()*2</f>
-        <v>8.5837478187369642E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.26031030116238174</v>
       </c>
       <c r="B75">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.47571818868592386</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.29020346028086474</v>
       </c>
       <c r="G75">
-        <f ca="1">G74+A74</f>
-        <v>1.795968341293658</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9.8195491183787258</v>
       </c>
       <c r="H75">
-        <f ca="1">H74+B74</f>
-        <v>0.50375992810028003</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.704997091537484</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.25886852056423559</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-4.1303064424421887E-2</v>
       </c>
       <c r="B76">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.48339977381170307</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7.6762614790605754E-2</v>
       </c>
       <c r="G76">
-        <f ca="1">G75+A75</f>
-        <v>1.8818058194810277</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9.5592388172163432</v>
       </c>
       <c r="H76">
-        <f ca="1">H75+B75</f>
-        <v>0.97947811678620389</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.41479363125662</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.66440817837989941</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.5848535083043791</v>
       </c>
       <c r="B77">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.40045289424213193</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.2532720777690871E-2</v>
       </c>
       <c r="G77">
-        <f ca="1">G76+A76</f>
-        <v>2.1406743400452632</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9.5179357527919208</v>
       </c>
       <c r="H77">
-        <f ca="1">H76+B76</f>
-        <v>0.49607834297450082</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.491556246047226</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f ca="1">1-RAND()*2</f>
-        <v>6.0710463216743671E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.85689576181941662</v>
       </c>
       <c r="B78">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.19218545171443013</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.35275369681652835</v>
       </c>
       <c r="G78">
-        <f ca="1">G77+A77</f>
-        <v>1.4762661616653638</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.933082244487542</v>
       </c>
       <c r="H78">
-        <f ca="1">H77+B77</f>
-        <v>9.562544873236889E-2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.524088966824918</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.11548879558164193</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.22750394895693282</v>
       </c>
       <c r="B79">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.23433106817422877</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.88172511682833532</v>
       </c>
       <c r="G79">
-        <f ca="1">G78+A78</f>
-        <v>1.5369766248821075</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.0761864826681258</v>
       </c>
       <c r="H79">
-        <f ca="1">H78+B78</f>
-        <v>-9.6560002982061244E-2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.17133527000839</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.530830413493391</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.69021568788459131</v>
       </c>
       <c r="B80">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.83493855419143337</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.90047946532045509</v>
       </c>
       <c r="G80">
-        <f ca="1">G79+A79</f>
-        <v>1.6524654204637494</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7.8486825337111927</v>
       </c>
       <c r="H80">
-        <f ca="1">H79+B79</f>
-        <v>-0.33089107115629002</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10.289610153180055</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.11028804863198882</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.49625112792239912</v>
       </c>
       <c r="B81">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.99873845831520569</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-6.9305890830368977E-3</v>
       </c>
       <c r="G81">
-        <f ca="1">G80+A80</f>
-        <v>2.1832958339571404</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.5388982215957832</v>
       </c>
       <c r="H81">
-        <f ca="1">H80+B80</f>
-        <v>-1.1658296253477234</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.19008961850051</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.59249843366677757</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.99520980561124128</v>
       </c>
       <c r="B82">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.22209154100661954</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.52905446693492131</v>
       </c>
       <c r="G82">
-        <f ca="1">G81+A81</f>
-        <v>2.2935838825891293</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9.035149349518182</v>
       </c>
       <c r="H82">
-        <f ca="1">H81+B81</f>
-        <v>-0.1670911670325177</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.183159029417473</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.74414964619271995</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.15774578257823602</v>
       </c>
       <c r="B83">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.72653109017638262</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-5.7819201291068989E-2</v>
       </c>
       <c r="G83">
-        <f ca="1">G82+A82</f>
-        <v>2.8860823162559068</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.0399395439069412</v>
       </c>
       <c r="H83">
-        <f ca="1">H82+B82</f>
-        <v>5.5000373974101846E-2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.712213496352394</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.98080296334518202</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.65658515203678003</v>
       </c>
       <c r="B84">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.38933892817709292</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.20004388257163752</v>
       </c>
       <c r="G84">
-        <f ca="1">G83+A83</f>
-        <v>2.1419326700631869</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.1976853264851766</v>
       </c>
       <c r="H84">
-        <f ca="1">H83+B83</f>
-        <v>0.78153146415048447</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.654394295061325</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.10032651671654369</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91184834076888821</v>
       </c>
       <c r="B85">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.2646911180296776</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-0.72825940706880599</v>
       </c>
       <c r="G85">
-        <f ca="1">G84+A84</f>
-        <v>1.1611297067180049</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.8542704785219559</v>
       </c>
       <c r="H85">
-        <f ca="1">H84+B84</f>
-        <v>1.1708703923275774</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.854438177632963</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.48521382199197083</v>
+        <f t="shared" ref="A86:B106" ca="1" si="10">1-RAND()*2</f>
+        <v>6.2643689560693661E-2</v>
       </c>
       <c r="B86">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.89611553347062123</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.55621262017613327</v>
       </c>
       <c r="G86">
-        <f ca="1">G85+A85</f>
-        <v>1.0608031900014612</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9.7661188192908437</v>
       </c>
       <c r="H86">
-        <f ca="1">H85+B85</f>
-        <v>0.90617927429789979</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.126178770564156</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.35988600168895313</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.38932477725826597</v>
       </c>
       <c r="B87">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.62219292988420527</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.81446856249539268</v>
       </c>
       <c r="G87">
-        <f ca="1">G86+A86</f>
-        <v>1.546017011993432</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9.828762508851538</v>
       </c>
       <c r="H87">
-        <f ca="1">H86+B86</f>
-        <v>1.0063740827278567E-2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10.569966150388023</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.62081359353586385</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.28763178746807005</v>
       </c>
       <c r="B88">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.8095829586002119</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.1138697228348089</v>
       </c>
       <c r="G88">
-        <f ca="1">G87+A87</f>
-        <v>1.1861310103044789</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>10.218087286109803</v>
       </c>
       <c r="H88">
-        <f ca="1">H87+B87</f>
-        <v>0.63225667071148384</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9.7554975878926307</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.64347037092909698</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.55523222718541976</v>
       </c>
       <c r="B89">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.62301315750762543</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.31540482090043165</v>
       </c>
       <c r="G89">
-        <f ca="1">G88+A88</f>
-        <v>1.8069446038403427</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>10.505719073577874</v>
       </c>
       <c r="H89">
-        <f ca="1">H88+B88</f>
-        <v>1.4418396293116957</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9.6416278650578224</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.51569641430280533</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.21296817684794944</v>
       </c>
       <c r="B90">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.96504079557195044</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.92723481255379792</v>
       </c>
       <c r="G90">
-        <f ca="1">G89+A89</f>
-        <v>1.1634742329112457</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>11.060951300763293</v>
       </c>
       <c r="H90">
-        <f ca="1">H89+B89</f>
-        <v>0.81882647180407031</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9.3262230441573912</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.29649001494046057</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.59425200526607735</v>
       </c>
       <c r="B91">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.40961164404348427</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.65967003285454684</v>
       </c>
       <c r="G91">
-        <f ca="1">G90+A90</f>
-        <v>1.6791706472140511</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>10.847983123915343</v>
       </c>
       <c r="H91">
-        <f ca="1">H90+B90</f>
-        <v>-0.14621432376788013</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>8.3989882316035924</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.37678985017145372</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.12046741887072776</v>
       </c>
       <c r="B92">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.5141743934612788</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.1726364197707293</v>
       </c>
       <c r="G92">
-        <f ca="1">G91+A91</f>
-        <v>1.9756606621545116</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>11.442235129181419</v>
       </c>
       <c r="H92">
-        <f ca="1">H91+B91</f>
-        <v>-0.5558259678113644</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9.0586582644581384</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f ca="1">1-RAND()*2</f>
-        <v>4.9825781607730546E-2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.40571578355279558</v>
       </c>
       <c r="B93">
-        <f ca="1">1-RAND()*2</f>
-        <v>-3.1244815505979684E-2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.15901826573099931</v>
       </c>
       <c r="G93">
-        <f ca="1">G92+A92</f>
-        <v>2.3524505123259654</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>11.321767710310692</v>
       </c>
       <c r="H93">
-        <f ca="1">H92+B92</f>
-        <v>-4.1651574350085596E-2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9.2312946842288675</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.9987115806153386</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.77381204992058716</v>
       </c>
       <c r="B94">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.5697041707489594</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.60566052890680799</v>
       </c>
       <c r="G94">
-        <f ca="1">G93+A93</f>
-        <v>2.4022762939336957</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>11.727483493863486</v>
       </c>
       <c r="H94">
-        <f ca="1">H93+B93</f>
-        <v>-7.289638985606528E-2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9.0722764184978679</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.4319929913356344</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.16607332548660647</v>
       </c>
       <c r="B95">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.5788975535526697</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.52196003207791097</v>
       </c>
       <c r="G95">
-        <f ca="1">G94+A94</f>
-        <v>3.4009878745490343</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12.501295543784074</v>
       </c>
       <c r="H95">
-        <f ca="1">H94+B94</f>
-        <v>-0.64260056060502468</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9.6779369474046764</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.78006248205307083</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.58345637578834619</v>
       </c>
       <c r="B96">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.20150451000077596</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.68027602094838913</v>
       </c>
       <c r="G96">
-        <f ca="1">G95+A95</f>
-        <v>3.8329808658846689</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12.667368869270682</v>
       </c>
       <c r="H96">
-        <f ca="1">H95+B95</f>
-        <v>-1.2214981141576944</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9.1559769153267645</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.60972381099009842</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.52888486039768345</v>
       </c>
       <c r="B97">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.56776924195513367</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.88265074761354012</v>
       </c>
       <c r="G97">
-        <f ca="1">G96+A96</f>
-        <v>4.6130433479377402</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12.083912493482336</v>
       </c>
       <c r="H97">
-        <f ca="1">H96+B96</f>
-        <v>-1.0199936041569184</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9.8362529362751534</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.77120585740809733</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.76447971494288636</v>
       </c>
       <c r="B98">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.26489955345856653</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.48676476870555385</v>
       </c>
       <c r="G98">
-        <f ca="1">G97+A97</f>
-        <v>5.222767158927839</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>11.555027633084652</v>
       </c>
       <c r="H98">
-        <f ca="1">H97+B97</f>
-        <v>-1.5877628461120521</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10.718903683888694</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.50960460426809284</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.81814185489845714</v>
       </c>
       <c r="B99">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.51858848081039444</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.10965762288243508</v>
       </c>
       <c r="G99">
-        <f ca="1">G98+A98</f>
-        <v>4.4515613015197415</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12.319507348027539</v>
       </c>
       <c r="H99">
-        <f ca="1">H98+B98</f>
-        <v>-1.8526623995706186</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.205668452594248</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.51544357679466013</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.31010296796989256</v>
       </c>
       <c r="B100">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.8833592460710582</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.50403430890572376</v>
       </c>
       <c r="G100">
-        <f ca="1">G99+A99</f>
-        <v>4.9611659057878343</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>13.137649202925996</v>
       </c>
       <c r="H100">
-        <f ca="1">H99+B99</f>
-        <v>-2.3712508803810133</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.096010829711812</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f ca="1">1-RAND()*2</f>
-        <v>-5.1172869431854728E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.51334908555263814</v>
       </c>
       <c r="B101">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.7454469632058367</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.80728969900919045</v>
       </c>
       <c r="G101">
-        <f ca="1">G100+A100</f>
-        <v>4.445722328993174</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>13.447752170895889</v>
       </c>
       <c r="H101">
-        <f ca="1">H100+B100</f>
-        <v>-1.4878916343099551</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10.591976520806089</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.5737006794127042</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.71693378482456382</v>
       </c>
       <c r="B102">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.77926306461815997</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.67498776986879228</v>
       </c>
       <c r="G102">
-        <f ca="1">G101+A101</f>
-        <v>4.4406050420499881</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12.93440308534325</v>
       </c>
       <c r="H102">
-        <f ca="1">H101+B101</f>
-        <v>-2.2333385975157918</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>11.39926621981528</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.37917542182520636</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.96424470024556652</v>
       </c>
       <c r="B103">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.39410446432328006</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.82885002172654199</v>
       </c>
       <c r="G103">
-        <f ca="1">G102+A102</f>
-        <v>3.8669043626372837</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12.217469300518687</v>
       </c>
       <c r="H103">
-        <f ca="1">H102+B102</f>
-        <v>-3.0126016621339518</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12.074253989684072</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.60518634034709562</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.17999714565573011</v>
       </c>
       <c r="B104">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.91702856696178969</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.26747100147731206</v>
       </c>
       <c r="G104">
-        <f ca="1">G103+A103</f>
-        <v>4.2460797844624896</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>13.181714000764254</v>
       </c>
       <c r="H104">
-        <f ca="1">H103+B103</f>
-        <v>-2.6184971978106715</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12.903104011410614</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.11301181217899159</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.39118404552812747</v>
       </c>
       <c r="B105">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.23583556937839822</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.16137538932768902</v>
       </c>
       <c r="G105">
-        <f ca="1">G104+A104</f>
-        <v>3.640893444115394</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>13.361711146419983</v>
       </c>
       <c r="H105">
-        <f ca="1">H104+B104</f>
-        <v>-3.5355257647724612</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12.635633009933301</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f ca="1">1-RAND()*2</f>
-        <v>-0.49885594957837487</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.97997391415367008</v>
       </c>
       <c r="B106">
-        <f ca="1">1-RAND()*2</f>
-        <v>0.5136784264171026</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.91606562168014305</v>
       </c>
       <c r="G106">
-        <f ca="1">G105+A105</f>
-        <v>3.7539052562943853</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12.970527100891855</v>
       </c>
       <c r="H106">
-        <f ca="1">H105+B105</f>
-        <v>-3.7713613341508596</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12.79700839926099</v>
       </c>
     </row>
   </sheetData>
